--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.97235838762259</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H2">
-        <v>6.97235838762259</v>
+        <v>21.405217</v>
       </c>
       <c r="I2">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J2">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.0792426056337</v>
+        <v>82.48638166666666</v>
       </c>
       <c r="N2">
-        <v>82.0792426056337</v>
+        <v>247.459145</v>
       </c>
       <c r="O2">
-        <v>0.8190380511179876</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="P2">
-        <v>0.8190380511179876</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="Q2">
-        <v>572.2858956310995</v>
+        <v>588.5462997066072</v>
       </c>
       <c r="R2">
-        <v>572.2858956310995</v>
+        <v>5296.916697359465</v>
       </c>
       <c r="S2">
-        <v>0.2032319488466277</v>
+        <v>0.192256652153915</v>
       </c>
       <c r="T2">
-        <v>0.2032319488466277</v>
+        <v>0.192256652153915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.97235838762259</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H3">
-        <v>6.97235838762259</v>
+        <v>21.405217</v>
       </c>
       <c r="I3">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J3">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>15.8729238122926</v>
+        <v>0.8713403333333334</v>
       </c>
       <c r="N3">
-        <v>15.8729238122926</v>
+        <v>2.614021</v>
       </c>
       <c r="O3">
-        <v>0.1583899676953416</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="P3">
-        <v>0.1583899676953416</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="Q3">
-        <v>110.6717134787326</v>
+        <v>6.217076305284111</v>
       </c>
       <c r="R3">
-        <v>110.6717134787326</v>
+        <v>55.95368674755701</v>
       </c>
       <c r="S3">
-        <v>0.03930208342401117</v>
+        <v>0.002030892518116593</v>
       </c>
       <c r="T3">
-        <v>0.03930208342401117</v>
+        <v>0.002030892518116593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.97235838762259</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H4">
-        <v>6.97235838762259</v>
+        <v>21.405217</v>
       </c>
       <c r="I4">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J4">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26203302445061</v>
+        <v>17.88507033333333</v>
       </c>
       <c r="N4">
-        <v>2.26203302445061</v>
+        <v>53.65521099999999</v>
       </c>
       <c r="O4">
-        <v>0.02257198118667083</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="P4">
-        <v>0.02257198118667083</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="Q4">
-        <v>15.77170493110751</v>
+        <v>127.6112705150874</v>
       </c>
       <c r="R4">
-        <v>15.77170493110751</v>
+        <v>1148.501434635787</v>
       </c>
       <c r="S4">
-        <v>0.005600896954219399</v>
+        <v>0.04168595683732729</v>
       </c>
       <c r="T4">
-        <v>0.005600896954219399</v>
+        <v>0.04168595683732729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.196303519132</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H5">
-        <v>11.196303519132</v>
+        <v>21.405217</v>
       </c>
       <c r="I5">
-        <v>0.3984582872606967</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J5">
-        <v>0.3984582872606967</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.0792426056337</v>
+        <v>3.237038999999999</v>
       </c>
       <c r="N5">
-        <v>82.0792426056337</v>
+        <v>9.711116999999998</v>
       </c>
       <c r="O5">
-        <v>0.8190380511179876</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="P5">
-        <v>0.8190380511179876</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="Q5">
-        <v>918.9841128331457</v>
+        <v>23.09650741082099</v>
       </c>
       <c r="R5">
-        <v>918.9841128331457</v>
+        <v>207.868566697389</v>
       </c>
       <c r="S5">
-        <v>0.3263524990498123</v>
+        <v>0.00754478822391054</v>
       </c>
       <c r="T5">
-        <v>0.3263524990498123</v>
+        <v>0.00754478822391054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.196303519132</v>
+        <v>11.272738</v>
       </c>
       <c r="H6">
-        <v>11.196303519132</v>
+        <v>33.818214</v>
       </c>
       <c r="I6">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J6">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.8729238122926</v>
+        <v>82.48638166666666</v>
       </c>
       <c r="N6">
-        <v>15.8729238122926</v>
+        <v>247.459145</v>
       </c>
       <c r="O6">
-        <v>0.1583899676953416</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="P6">
-        <v>0.1583899676953416</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="Q6">
-        <v>177.7180727384857</v>
+        <v>929.8473690963365</v>
       </c>
       <c r="R6">
-        <v>177.7180727384857</v>
+        <v>8368.626321867028</v>
       </c>
       <c r="S6">
-        <v>0.0631117952471629</v>
+        <v>0.3037472876572407</v>
       </c>
       <c r="T6">
-        <v>0.0631117952471629</v>
+        <v>0.3037472876572407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.196303519132</v>
+        <v>11.272738</v>
       </c>
       <c r="H7">
-        <v>11.196303519132</v>
+        <v>33.818214</v>
       </c>
       <c r="I7">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J7">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.26203302445061</v>
+        <v>0.8713403333333334</v>
       </c>
       <c r="N7">
-        <v>2.26203302445061</v>
+        <v>2.614021</v>
       </c>
       <c r="O7">
-        <v>0.02257198118667083</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="P7">
-        <v>0.02257198118667083</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="Q7">
-        <v>25.32640831204917</v>
+        <v>9.822391286499332</v>
       </c>
       <c r="R7">
-        <v>25.32640831204917</v>
+        <v>88.401521578494</v>
       </c>
       <c r="S7">
-        <v>0.008993992963721529</v>
+        <v>0.003208617683654682</v>
       </c>
       <c r="T7">
-        <v>0.008993992963721529</v>
+        <v>0.003208617683654682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.72633715754716</v>
+        <v>11.272738</v>
       </c>
       <c r="H8">
-        <v>5.72633715754716</v>
+        <v>33.818214</v>
       </c>
       <c r="I8">
-        <v>0.203791054089825</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J8">
-        <v>0.203791054089825</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.0792426056337</v>
+        <v>17.88507033333333</v>
       </c>
       <c r="N8">
-        <v>82.0792426056337</v>
+        <v>53.65521099999999</v>
       </c>
       <c r="O8">
-        <v>0.8190380511179876</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="P8">
-        <v>0.8190380511179876</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="Q8">
-        <v>470.0134167959682</v>
+        <v>201.6137119792393</v>
       </c>
       <c r="R8">
-        <v>470.0134167959682</v>
+        <v>1814.523407813154</v>
       </c>
       <c r="S8">
-        <v>0.1669126277770107</v>
+        <v>0.06585986066478548</v>
       </c>
       <c r="T8">
-        <v>0.1669126277770107</v>
+        <v>0.06585986066478548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.72633715754716</v>
+        <v>11.272738</v>
       </c>
       <c r="H9">
-        <v>5.72633715754716</v>
+        <v>33.818214</v>
       </c>
       <c r="I9">
-        <v>0.203791054089825</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J9">
-        <v>0.203791054089825</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8729238122926</v>
+        <v>3.237038999999999</v>
       </c>
       <c r="N9">
-        <v>15.8729238122926</v>
+        <v>9.711116999999998</v>
       </c>
       <c r="O9">
-        <v>0.1583899676953416</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="P9">
-        <v>0.1583899676953416</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="Q9">
-        <v>90.89371342524623</v>
+        <v>36.49029254278199</v>
       </c>
       <c r="R9">
-        <v>90.89371342524623</v>
+        <v>328.4126328850379</v>
       </c>
       <c r="S9">
-        <v>0.032278458473887</v>
+        <v>0.01192005027283239</v>
       </c>
       <c r="T9">
-        <v>0.032278458473887</v>
+        <v>0.01192005027283239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.72633715754716</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H10">
-        <v>5.72633715754716</v>
+        <v>18.935886</v>
       </c>
       <c r="I10">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J10">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.26203302445061</v>
+        <v>82.48638166666666</v>
       </c>
       <c r="N10">
-        <v>2.26203302445061</v>
+        <v>247.459145</v>
       </c>
       <c r="O10">
-        <v>0.02257198118667083</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="P10">
-        <v>0.02257198118667083</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="Q10">
-        <v>12.95316375951031</v>
+        <v>520.6509065974967</v>
       </c>
       <c r="R10">
-        <v>12.95316375951031</v>
+        <v>4685.858159377471</v>
       </c>
       <c r="S10">
-        <v>0.004599967838927349</v>
+        <v>0.1700776987184101</v>
       </c>
       <c r="T10">
-        <v>0.004599967838927349</v>
+        <v>0.1700776987184101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.20406143235362</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H11">
-        <v>4.20406143235362</v>
+        <v>18.935886</v>
       </c>
       <c r="I11">
-        <v>0.1496157294246201</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J11">
-        <v>0.1496157294246201</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>82.0792426056337</v>
+        <v>0.8713403333333334</v>
       </c>
       <c r="N11">
-        <v>82.0792426056337</v>
+        <v>2.614021</v>
       </c>
       <c r="O11">
-        <v>0.8190380511179876</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="P11">
-        <v>0.8190380511179876</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="Q11">
-        <v>345.0661782351406</v>
+        <v>5.499867073067334</v>
       </c>
       <c r="R11">
-        <v>345.0661782351406</v>
+        <v>49.49880365760601</v>
       </c>
       <c r="S11">
-        <v>0.122540975444537</v>
+        <v>0.001796606369433618</v>
       </c>
       <c r="T11">
-        <v>0.122540975444537</v>
+        <v>0.001796606369433617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.20406143235362</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H12">
-        <v>4.20406143235362</v>
+        <v>18.935886</v>
       </c>
       <c r="I12">
-        <v>0.1496157294246201</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J12">
-        <v>0.1496157294246201</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.8729238122926</v>
+        <v>17.88507033333333</v>
       </c>
       <c r="N12">
-        <v>15.8729238122926</v>
+        <v>53.65521099999999</v>
       </c>
       <c r="O12">
-        <v>0.1583899676953416</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="P12">
-        <v>0.1583899676953416</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="Q12">
-        <v>66.73074681794671</v>
+        <v>112.8898843113273</v>
       </c>
       <c r="R12">
-        <v>66.73074681794671</v>
+        <v>1016.008958801946</v>
       </c>
       <c r="S12">
-        <v>0.02369763055028054</v>
+        <v>0.03687701584490129</v>
       </c>
       <c r="T12">
-        <v>0.02369763055028054</v>
+        <v>0.03687701584490128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.20406143235362</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H13">
-        <v>4.20406143235362</v>
+        <v>18.935886</v>
       </c>
       <c r="I13">
-        <v>0.1496157294246201</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J13">
-        <v>0.1496157294246201</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.26203302445061</v>
+        <v>3.237038999999999</v>
       </c>
       <c r="N13">
-        <v>2.26203302445061</v>
+        <v>9.711116999999998</v>
       </c>
       <c r="O13">
-        <v>0.02257198118667083</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="P13">
-        <v>0.02257198118667083</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="Q13">
-        <v>9.509725796803023</v>
+        <v>20.432067160518</v>
       </c>
       <c r="R13">
-        <v>9.509725796803023</v>
+        <v>183.888604444662</v>
       </c>
       <c r="S13">
-        <v>0.003377123429802558</v>
+        <v>0.00667441258372258</v>
       </c>
       <c r="T13">
-        <v>0.003377123429802558</v>
+        <v>0.006674412583722579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.580172</v>
+      </c>
+      <c r="H14">
+        <v>13.740516</v>
+      </c>
+      <c r="I14">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="J14">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>82.48638166666666</v>
+      </c>
+      <c r="N14">
+        <v>247.459145</v>
+      </c>
+      <c r="O14">
+        <v>0.7894957391680832</v>
+      </c>
+      <c r="P14">
+        <v>0.7894957391680832</v>
+      </c>
+      <c r="Q14">
+        <v>377.80181569098</v>
+      </c>
+      <c r="R14">
+        <v>3400.21634121882</v>
+      </c>
+      <c r="S14">
+        <v>0.1234141006385174</v>
+      </c>
+      <c r="T14">
+        <v>0.1234141006385174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.580172</v>
+      </c>
+      <c r="H15">
+        <v>13.740516</v>
+      </c>
+      <c r="I15">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="J15">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.8713403333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.614021</v>
+      </c>
+      <c r="O15">
+        <v>0.008339794601633706</v>
+      </c>
+      <c r="P15">
+        <v>0.008339794601633706</v>
+      </c>
+      <c r="Q15">
+        <v>3.990888597204</v>
+      </c>
+      <c r="R15">
+        <v>35.917997374836</v>
+      </c>
+      <c r="S15">
+        <v>0.001303678030428813</v>
+      </c>
+      <c r="T15">
+        <v>0.001303678030428813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.580172</v>
+      </c>
+      <c r="H16">
+        <v>13.740516</v>
+      </c>
+      <c r="I16">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="J16">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.88507033333333</v>
+      </c>
+      <c r="N16">
+        <v>53.65521099999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1711820368112258</v>
+      </c>
+      <c r="P16">
+        <v>0.1711820368112258</v>
+      </c>
+      <c r="Q16">
+        <v>81.91669835876399</v>
+      </c>
+      <c r="R16">
+        <v>737.2502852288759</v>
+      </c>
+      <c r="S16">
+        <v>0.02675920346421179</v>
+      </c>
+      <c r="T16">
+        <v>0.02675920346421179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.580172</v>
+      </c>
+      <c r="H17">
+        <v>13.740516</v>
+      </c>
+      <c r="I17">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="J17">
+        <v>0.1563201604717497</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.237038999999999</v>
+      </c>
+      <c r="N17">
+        <v>9.711116999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.03098242941905719</v>
+      </c>
+      <c r="P17">
+        <v>0.03098242941905719</v>
+      </c>
+      <c r="Q17">
+        <v>14.826195390708</v>
+      </c>
+      <c r="R17">
+        <v>133.435758516372</v>
+      </c>
+      <c r="S17">
+        <v>0.004843178338591678</v>
+      </c>
+      <c r="T17">
+        <v>0.004843178338591677</v>
       </c>
     </row>
   </sheetData>
